--- a/001.Document/작업진행히스토리.xlsx
+++ b/001.Document/작업진행히스토리.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC3F96-6A54-40BB-9F12-AC7733E82CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D216EC2-8DC8-495A-93C6-ABDAD7E63F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1965" windowWidth="29040" windowHeight="15720" xr2:uid="{8CFC5177-C54A-4A50-99EB-9B866E804BD0}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{8CFC5177-C54A-4A50-99EB-9B866E804BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="화면레이아웃" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>구분</t>
   </si>
@@ -90,9 +91,6 @@
   </si>
   <si>
     <t>제목 아이콘(좌측) 및 버튼군(우측 끝) 배치의 표준 페이지 헤더 컴포넌트 [cite: 2026-01-28]</t>
-  </si>
-  <si>
-    <t>FilterBar.tsx</t>
   </si>
   <si>
     <t>검색 조건 입력부와 조회/초기화 버튼 영역을 분리한 공통 검색 바 [cite: 2026-01-28]</t>
@@ -206,6 +204,156 @@
   <si>
     <t>OK</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilterBar.tsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 명칭</t>
+  </si>
+  <si>
+    <t>코드상 명칭</t>
+  </si>
+  <si>
+    <t>주요 역할 및 구성</t>
+  </si>
+  <si>
+    <t>상단 프레임</t>
+  </si>
+  <si>
+    <t>Top Frame</t>
+  </si>
+  <si>
+    <t>시스템 로고, 알림, 사용자 프로필 등이 위치하는 공통 헤더 영역 [cite: 2026-01-28]</t>
+  </si>
+  <si>
+    <t>사이드 메뉴</t>
+  </si>
+  <si>
+    <t>Left Frame</t>
+  </si>
+  <si>
+    <t>ERD TOOL 메뉴 트리 및 사이드바가 위치하는 내비게이션 영역 [cite: 2026-01-27, 2026-01-28]</t>
+  </si>
+  <si>
+    <t>메인 컨텐츠</t>
+  </si>
+  <si>
+    <r>
+      <t>실제 업무 페이지(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 등)가 렌더링되는 가변 영역 [cite: 2026-01-28]</t>
+    </r>
+  </si>
+  <si>
+    <t>Content Frame</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>주요 역할</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>ErdDbContext.cs</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>모든 테이블(DbSet) 및 복합키 모델링 정의</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>CommonCodeDto.cs</t>
+  </si>
+  <si>
+    <t>Null 경고 해결 및 Snake Case JSON 매핑</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>ICommonCodeService.cs</t>
+  </si>
+  <si>
+    <t>비즈니스 로직의 표준 규격 정의</t>
+  </si>
+  <si>
+    <t>CommonCodeService.cs</t>
+  </si>
+  <si>
+    <r>
+      <t>핵심 로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (조회 및 다건 Upsert 처리)</t>
+    </r>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>CommonCodeController.cs</t>
+  </si>
+  <si>
+    <t>API 엔드포인트 노출 및 서비스 호출</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Startup.cs</t>
+  </si>
+  <si>
+    <t>DB 연동 및 의존성 주입(DI), CORS 설정</t>
   </si>
 </sst>
 </file>
@@ -264,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -287,13 +435,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,14 +472,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B85D077-F21A-47B5-8BE7-C8323430E025}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -664,7 +833,7 @@
     <col min="3" max="3" width="31.625" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="112.375" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -680,8 +849,8 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>37</v>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -697,8 +866,8 @@
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>38</v>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -714,8 +883,8 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>38</v>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -731,8 +900,8 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>38</v>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -748,8 +917,8 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -765,8 +934,8 @@
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -777,93 +946,264 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>38</v>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54348FF-CF60-41C1-B7E4-54B4E09ACD12}">
+  <dimension ref="B1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="41.75" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:5" ht="30.75" thickBot="1">
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="29.25" thickBot="1">
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="29.25" thickBot="1">
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="29.25" thickBot="1">
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="10" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="72" thickBot="1">
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="86.25" thickBot="1">
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="57.75" thickBot="1">
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="72.75" thickBot="1">
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="57.75" thickBot="1">
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="72" thickBot="1">
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
